--- a/Fase_1.0/MATRIZ_DE_RIESGO.xlsx
+++ b/Fase_1.0/MATRIZ_DE_RIESGO.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GMPD_V04\Desktop\Nueva carpeta\Documentación Metodología Tradicional FASE 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D50228-F998-48F2-B3AE-3742134EC840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="MATRIZ" sheetId="1" r:id="rId1"/>
-    <sheet name="DICCIONARIO" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="MATRIZ" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="DICCIONARIO" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="Ze95Bt0/1WYwLeUpH07nAJsiZ3CWP2rH8ONp/I2mixw="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,42 +22,102 @@
     <t>Riesgo</t>
   </si>
   <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Acción de Mitigación</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Corrupción del código actual</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Crítica</t>
+  </si>
+  <si>
+    <t>Siempre se trabaja sobre una copia del proyecto original, y solamente se implementarán cambios si es seguro.</t>
+  </si>
+  <si>
+    <t>Cristobal Andres Prado Pinto</t>
+  </si>
+  <si>
+    <t>Falta de personal</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Muy alta</t>
+  </si>
+  <si>
+    <t>Se eliminarán características que no sean totalmente críticas.</t>
+  </si>
+  <si>
+    <t>Falta de características</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Marginal</t>
+  </si>
+  <si>
+    <t>Se implementaran las características faltantes con el tiempo sobrante.</t>
+  </si>
+  <si>
+    <t>Documentación con falta de detalle</t>
+  </si>
+  <si>
+    <t>Despreciable</t>
+  </si>
+  <si>
+    <t>Cualquier detalle se agregara en un futuro en los documentos actualizados.</t>
+  </si>
+  <si>
+    <t>Falta de requerimientos</t>
+  </si>
+  <si>
+    <t>Se agregaran los requerimientos faltas solamente si son críticamente necesarios, del otro caso serán omitidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos errónea </t>
+  </si>
+  <si>
+    <t>Catastrófica</t>
+  </si>
+  <si>
+    <t>La aplicación se pondrá en cuarentena momentáneamente para solucionar el problema lo antes posible</t>
+  </si>
+  <si>
+    <t>Falta de equipo de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnico </t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Se modifica el cronograma para sustentar el tiempo perdido a causa del equipo faltante</t>
+  </si>
+  <si>
     <t>Una vez identificados los riegos se deben evaluar en qué medida estos afectan al proyecto. Se pueden utilizar términos como los siguientes para asignar un impacto:</t>
   </si>
   <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Probabilidad</t>
-  </si>
-  <si>
-    <t>Impacto</t>
-  </si>
-  <si>
-    <t>Acción de Mitigación</t>
-  </si>
-  <si>
-    <t>Responsable</t>
-  </si>
-  <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>Marginal</t>
-  </si>
-  <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
-    <t>Baja</t>
-  </si>
-  <si>
-    <t>Critica</t>
-  </si>
-  <si>
     <t>Despreciable: Poco relevante.</t>
   </si>
   <si>
@@ -71,101 +127,40 @@
     <t>Crítica: Podría afectar de manera sustancial al proyecto y podría impedir su conclusión/término de manera exitosa.</t>
   </si>
   <si>
-    <t>Catastrófica: Significaría el fracaso del proyecto o afectaría gravemente la ejecución/continuación/termino del mismo</t>
-  </si>
-  <si>
-    <t>Cristobal Andres Prado Pinto</t>
-  </si>
-  <si>
-    <t>Corrupcion del codigo actual</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Siempre se trabaja sobre una copia del proyecto original, y solamente se implementaran cambios si es seguro.</t>
-  </si>
-  <si>
-    <t>Falta de personal</t>
-  </si>
-  <si>
-    <t>Muy alta</t>
-  </si>
-  <si>
-    <t>Se eliminaran caracteristicas que no sean total mente criticas.</t>
-  </si>
-  <si>
-    <t>Falta de caracteristicas</t>
-  </si>
-  <si>
-    <t>Se implementaran las caracteristicas faltantes con el tiempo sobrante.</t>
-  </si>
-  <si>
-    <t>Documentacion con falta de detalle</t>
-  </si>
-  <si>
-    <t>Despreciable</t>
-  </si>
-  <si>
-    <t>Cualquier detalle se agregara en un futuro en los documentos actualizados.</t>
-  </si>
-  <si>
-    <t>Falta de requerimientos</t>
-  </si>
-  <si>
-    <t>Se agregaran los requerimientos faltas solamente si son criticamente necesarios, del otro caso seran omitidos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base de datos erronea </t>
-  </si>
-  <si>
-    <t>Catastrofica</t>
-  </si>
-  <si>
-    <t>La aplicación se pondra en cuarentena momentaneamente para solucionar el problema lo antes posible</t>
-  </si>
-  <si>
-    <t>Falta de equipo de desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnico </t>
-  </si>
-  <si>
-    <t>Se modificara el cronograma para sustentar el tiempo perdido a causa del equipo faltante</t>
+    <t>Catastrófica: Significa el fracaso del proyecto o afectaría gravemente la ejecución/continuación/término del mismo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Noto Sans Symbols"/>
     </font>
   </fonts>
@@ -174,7 +169,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -190,13 +185,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -210,7 +199,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -221,62 +209,73 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -300,113 +299,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,276 +452,268 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="61.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="14.63"/>
+    <col customWidth="1" min="2" max="2" width="38.13"/>
+    <col customWidth="1" min="3" max="4" width="14.38"/>
+    <col customWidth="1" min="5" max="5" width="61.13"/>
+    <col customWidth="1" min="6" max="6" width="23.88"/>
+    <col customWidth="1" min="7" max="26" width="14.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1"/>
+    <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="63.75">
-      <c r="B3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="38.25">
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="38.25">
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    <row r="8">
+      <c r="B8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="51">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="76.5">
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="63.75">
-      <c r="B8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="2:7" ht="51">
-      <c r="B9" s="2" t="s">
-        <v>34</v>
+    <row r="9">
+      <c r="B9" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B10" s="2"/>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="7"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="B12" s="7"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B13" s="2"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B14" s="2"/>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B15" s="2"/>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="7"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B16" s="2"/>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="B16" s="7"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B17" s="2"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1786,78 +1683,81 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="100" customWidth="1"/>
-    <col min="3" max="6" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="6.13"/>
+    <col customWidth="1" min="2" max="2" width="100.0"/>
+    <col customWidth="1" min="3" max="26" width="14.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
+    <row r="2" ht="15.75" customHeight="1"/>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2843,6 +2743,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>